--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Fultola/Draft_Drawing/Fultola Input -Final.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Fultola/Draft_Drawing/Fultola Input -Final.xlsx
@@ -23475,8 +23475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26197,8 +26197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26549,7 +26549,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
